--- a/loaded_influencer_data/kookiedoei/kookiedoei_video.xlsx
+++ b/loaded_influencer_data/kookiedoei/kookiedoei_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/photo/7480639162467618070</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2103</v>
+        <v>2178</v>
       </c>
       <c r="C2" t="n">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.77841179267713</v>
+        <v>21.62534435261708</v>
       </c>
       <c r="I2" t="n">
-        <v>21.01759391345697</v>
+        <v>20.89072543617998</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7608178792201616</v>
+        <v>0.7346189164370982</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3804089396100808</v>
+        <v>0.3673094582185491</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/photo/7409598875633241377</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.962962962962963</v>
+        <v>1.919642857142857</v>
       </c>
       <c r="I3" t="n">
-        <v>1.888888888888889</v>
+        <v>1.848214285714286</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,19 +610,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7431622880787516694</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2198</v>
+        <v>2203</v>
       </c>
       <c r="C4" t="n">
         <v>277</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13.01182893539581</v>
+        <v>13.02768951429868</v>
       </c>
       <c r="I4" t="n">
-        <v>12.60236578707916</v>
+        <v>12.57376305038584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4094631483166515</v>
+        <v>0.4539264639128461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2274795268425842</v>
+        <v>0.2269632319564231</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,121 +664,121 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kookiedoei/video/7488017917863349526</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>756</v>
+      </c>
+      <c r="C5" t="n">
+        <v>169</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Oily pores is easy to get rid of with this coxir TXA mucin pore mask cleanser
+Now available on sale at amazons spring sale ✨💖</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>23.41269841269841</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22.35449735449735</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.058201058201058</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5291005291005291</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7486214176285723926</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>531</v>
-      </c>
-      <c r="C5" t="n">
-        <v>110</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>613</v>
+      </c>
+      <c r="C6" t="n">
+        <v>122</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Bye bye to wrinkles and hello glow 💖 a time reversing cream is a need
 (I received this product for free from Centellian24 and Picky)</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>21.46892655367231</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20.71563088512241</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7532956685499058</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1883239171374765</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>20.88091353996737</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.9021207177814</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9787928221859705</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3262642740619902</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7485627949333482774</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>490</v>
-      </c>
-      <c r="C6" t="n">
-        <v>116</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Bye bye to wrinkles and hello glow 💖 a time reversing cream is a need
-(I received this product for free from Centellian24 and Picky)</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>25.51020408163265</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.6734693877551</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.836734693877551</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.6122448979591837</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kookiedoei/video/7484599168665799958</t>
-        </is>
-      </c>
       <c r="B7" t="n">
-        <v>676</v>
+        <v>555</v>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18.49112426035503</v>
+        <v>24.68468468468469</v>
       </c>
       <c r="I7" t="n">
-        <v>17.15976331360947</v>
+        <v>22.88288288288288</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.331360946745562</v>
+        <v>1.801801801801802</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4437869822485207</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kookiedoei/video/7482886871807298818</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kookiedoei/video/7484599168665799958</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>655</v>
+        <v>717</v>
       </c>
       <c r="C8" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -847,19 +847,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.98473282442748</v>
+        <v>21.05997210599721</v>
       </c>
       <c r="I8" t="n">
-        <v>20.91603053435115</v>
+        <v>19.8047419804742</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.068702290076336</v>
+        <v>1.255230125523012</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7633587786259541</v>
+        <v>0.697350069735007</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kookiedoei/video/7482834974723329302</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kookiedoei/video/7482886871807298818</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>831</v>
+        <v>683</v>
       </c>
       <c r="C9" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15.76413959085439</v>
+        <v>19.61932650073206</v>
       </c>
       <c r="I9" t="n">
-        <v>14.92178098676294</v>
+        <v>18.59443631039532</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.842358604091456</v>
+        <v>1.02489019033675</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1203369434416366</v>
+        <v>0.1464128843338214</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -922,16 +922,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kookiedoei/video/7481740526312525078</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kookiedoei/video/7482834974723329302</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D10" t="n">
         <v>12</v>
@@ -951,463 +951,516 @@
         </is>
       </c>
       <c r="H10" t="n">
+        <v>19.04761904761905</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.68707482993197</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.360544217687075</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.453514739229025</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kookiedoei/video/7481740526312525078</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>777</v>
+      </c>
+      <c r="C11" t="n">
+        <v>150</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>In need for a new better mascara? Try this one 🩷
+I samarbete med @Max Factor
+@Lyko Sverige
+#MaxFactor</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>20.84942084942085</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>19.3050193050193</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.544401544401544</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.5148005148005148</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7480268822222605570</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>730</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>148</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>I did a 7 days challenge and this is the results ✨ (products explained)
 I can actually see my sun spot and acne scar slowly brightening up which is pretty shocking to me since I never tried to get rid of my sun spot before. I actually do like it and never thought of trying to get rid of it but this really proved that these products do make a difference.</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>21.0958904109589</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>20.27397260273973</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.821917808219178</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.410958904109589</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7479907572745538838</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>618</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>143</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>6</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Caffeine + K-beauty?! ☕️
 KAINE COLLABORATION
 If you have a dull skin and is searching for something that can wake your skin up and shine. This is the one</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>24.11003236245955</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>23.13915857605178</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.9708737864077669</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7479125489811066134</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>851</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>124</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>7</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>What’s your top 5 skincare products? ✨
 Product available on Amazon and Skinhousemall.com
 #coxir #amazonfinds</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>15.39365452408931</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>14.5710928319624</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.8225616921269095</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.1175088131609871</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7478872173726240002</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>623</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>124</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>What’s your top 5 skincare products? ✨
 Product available on Amazon and Skinhousemall.com
 #coxir #amazonfinds</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>21.02728731942215</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>19.90369181380417</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.123595505617978</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.1605136436597111</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7478244044733238550</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>702</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>192</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>9</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>In need for a skin booster? Watch this✨🫣
 For those who find expensive skincare products ineffective and see little difference even with devices</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>28.63247863247863</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>27.35042735042735</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.282051282051282</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.4273504273504274</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7477177246688513302</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>680</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>74</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>In need for a skin booster? Watch this✨🫣
 For those who find expensive skincare products ineffective and see little difference even with devices</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>11.32352941176471</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>10.88235294117647</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.4411764705882353</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7476625069763038486</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>1887</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>115</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Broken skin barrier? No problem
 Let’s fix it✨
 I have to say that the 2X tightening pads will not disappoint you if you struggle with any kind of enlarged pores.</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>6.412294647588765</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>6.094329623741388</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3179650238473768</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.05299417064122947</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7475823225847434518</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>658</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>131</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Best International Women's Day Gift 🎁
 Product used: the SKIN HOUSE ultra collagen dewy&amp;glow ampoule mist</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>21.12462006079027</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>19.90881458966566</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.21580547112462</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.4559270516717325</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7474401760082251030</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>860</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>268</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>I’m in love~ ♡｡ﾟ.♡ °・
 Product: Hwarang’ Cleansing balm
@@ -1415,52 +1468,52 @@
 Use rewards code: KOOKIE1008</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>32.32558139534883</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>31.16279069767442</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1.162790697674419</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.4651162790697674</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7472088498007248150</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>978</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>123</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>9</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Quickest way to get rid of dark spots 🫣✨
 Product shown:
@@ -1468,154 +1521,154 @@
 LINKED IN BIO 🔗</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>13.49693251533742</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>12.57668711656442</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.9202453987730062</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>0.1022494887525563</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7471986950304566550</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>994</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>142</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>10</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Wakemake Cushion Foundation 🩵✨
 This cushion foundation makes your skin look flawless without spending much time on it. Pat pat is all you need.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>15.29175050301811</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>14.28571428571428</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.006036217303823</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.4024144869215292</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7471005207787228438</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>865</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>142</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>10</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Wakemake Cushion Foundation 🩵✨
 This cushion foundation makes your skin look flawless without spending much time on it. Pat pat is all you need.</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>17.57225433526012</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>16.41618497109826</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.15606936416185</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.4624277456647399</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7470514760035978518</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>861</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>165</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Cell fushion Laser Sunscreen✨🩷
 Waterproof!
@@ -1623,52 +1676,52 @@
 • Peptide improve skin Firmness</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>20.32520325203252</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>19.16376306620209</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.16144018583043</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.232288037166086</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7469433471375559958</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>1546</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>124</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>13</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>What’s your thoughts on this?✨🩷
 Available on Amazon
@@ -1676,104 +1729,104 @@
 Collaboration with</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>8.861578266494179</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>8.020698576972833</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.8408796895213453</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.06468305304010349</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7466910536320666902</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>1011</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>97</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Affordable k-beauty box💖🎁
 Perfect for you that struggles to find skincare products.
 Product linked in bio! 💖</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>10.28684470820969</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>9.594460929772502</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.6923837784371909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>0.09891196834817012</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7465787433532050710</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>773</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>190</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Valentine glass skin 💘💖✨
 Products shown in video:
@@ -1781,358 +1834,358 @@
 •coxir txa niacinamide toning balm</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>25.35575679172057</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>24.57956015523933</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.7761966364812419</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.129366106080207</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7463797548940119318</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>1002</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>132</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>11</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Tosowoong Collagen Necktox Cream is such an amazing product if you want to get rid of your neck lines in the easiest way.</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>13.67265469061876</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>13.17365269461078</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.499001996007984</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>1.097804391217565</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7463069437755657494</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>792</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>125</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Easy weightloss hack🩷
 As a lazy person, having this by my side is great especially to help me achieve a healthier body.</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>16.16161616161616</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>15.78282828282828</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.3787878787878788</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>0.2525252525252525</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7462162563795569942</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>866</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>173</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>How to fix dry this🩵✨
 Torriden products works like magic and so do this serum. If you struggle with dry skin, this might be perfect for you.</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>20.43879907621247</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>19.97690531177829</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.4618937644341801</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.4618937644341801</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/photo/7460296049488350486</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>911</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>170</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Torriden ✨🩵
 Review on their dive in serum will be out very soon
 @𝗧𝗼𝗿𝗿𝗶𝗱𝗲𝗻 토리든 #collaboration #torriden</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>19.53896816684962</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>18.66081229418221</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.8781558726673985</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>0.2195389681668496</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7457626590525115670</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>890</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>140</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>2</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Glass skin secret ✨⭐️
 Available on YESSTYLE
 Use rewards code: KOOKIE1008 for an awesome discount</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>15.95505617977528</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>15.73033707865168</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.2247191011235955</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7455831118567230742</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>1879</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>114</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>If your dream is to become an influencer, you’re on the right track. With my link you have a higher chance of coming in. Don’t hesitate.</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>6.173496540713145</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>6.067056945183609</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.106439595529537</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.212879191059074</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7455081751090613526</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>992</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>149</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>3</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Fast delivery
 Easy to use
@@ -2141,306 +2194,306 @@
 (This is a collaboration)</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>15.32258064516129</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>15.02016129032258</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.3024193548387097</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.1008064516129032</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-09</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7454449112017030422</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>821</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>302</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>5</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Who’s your favorite player?
 #squidgame #netflix #yesstyle #yesstyleinfluencers #squidgamenetflix #hellokitty</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>37.39342265529842</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>36.78440925700365</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.6090133982947624</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.6090133982947624</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7452827431372737814</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>1476</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>161</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Mascara that K-idols use to achieve their amazing long lashes ✨💛
 Available on Yesstyle‼️
 Use rewards code: KOOKIE1008</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>11.17886178861789</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>10.90785907859079</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.2710027100271002</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.06775067750677506</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7451665864694189334</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>877</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>141</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>3</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>80 ml Serums?! Mary&amp;May have definitely stepped up the skincare game. With this big serum it will last you a long time.</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>16.41961231470924</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>16.07753705815279</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.3420752565564424</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>0.1140250855188141</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7450259448372694294</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>1036</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>304</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>7</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>7</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>&lt;3 #copenhagen</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>30.01930501930502</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>29.34362934362935</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.6756756756756757</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.6756756756756757</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7449880674028293398</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>869</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>145</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Upgrade your holiday look with these @Max Factor products! ☃️🎄❄️
 Amazing collaboration with Max Factor, with the help of</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>16.80092059838895</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>16.68584579976985</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1150747986191024</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.1150747986191024</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7449262407244860694</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>827</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>176</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>What to leave behind 2024 (skincare concern edition)
 Collaboration with Torriden
@@ -2448,589 +2501,589 @@
 (30% OFF Only $18.90 during Christmas Seasons)</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>21.5235792019347</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>21.28174123337364</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.2418379685610641</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7448242981250895126</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>898</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>140</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>8</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>2</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Lets unbox my new torriden PR! 💛
 Honestly such an amazing brand that actually helped my skin. I will forever be thankful ❄️</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>16.48106904231626</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>15.5902004454343</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.8908685968819599</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.22271714922049</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7447985543167741207</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>736</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>122</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Sellers best friend, @umma.influencers
 Start now with Umma.io or click the link in my bio ✨💛
 #UMMAkbeauty</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>16.71195652173913</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>16.57608695652174</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1358695652173913</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.1358695652173913</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7447605339261783318</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>662</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>100</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Från 10.00 till 16:00, 14 december finns de I Vega julmarknad. Passa på och kolla runt.
 #julmarknad #vega #haninge</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>15.70996978851964</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>15.10574018126888</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.6042296072507553</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7446826458284166422</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>644</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>112</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>2</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Need a glow up? No problem, with these products you’ll be able to achive it. Available at Yesstyle🫧
 Use rewards code: KOOKIE1008</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>17.70186335403727</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>17.39130434782609</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.3105590062111801</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>0.15527950310559</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7445593523220499734</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>840</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>83</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>High quality korean skincare in just one box! Get your own box linked in bio🎀📦
 Products shown in video:
 Mary&amp;May🫧</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>10</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>9.880952380952381</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1190476190476191</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7444267875789032726</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>650</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>104</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>This is the best cleanser I have used so far! Smells so good and works amazing for my combination skin. 🫧✨
 2 ways pore cleanser:</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>16.30769230769231</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>16</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7443193686512373014</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>964</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>104</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>This is the best cleanser I have used so far! Smells so good and works amazing for my combination skin. 🫧✨
 2 ways pore cleanser:</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>10.99585062240664</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>10.78838174273859</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.2074688796680498</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7442633538853244162</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>942</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>104</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>2</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>This is the best cleanser I have used so far! Smells so good and works amazing for my combination skin. 🫧✨
 2 ways pore cleanser:</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>11.25265392781316</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>11.04033970276009</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.2123142250530786</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7442107136936594710</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>1421</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>119</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>4</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>This is the best cleanser I have used so far! Smells so good and works amazing for my combination skin. 🫧✨
 2 ways pore cleanser:</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>8.655876143560873</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>8.374384236453201</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.2814919071076706</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0.1407459535538353</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-7</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7440422725140663574</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>1274</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>115</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Get rid of dry skin easily with iUNIK Beta-Glucan Moisturizer Cream🫧
 Available on yesstyle‼️
 Rewards Code: KOOKIE1008</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>9.183673469387756</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>9.026687598116169</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.1569858712715856</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>0.07849293563579278</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-4</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kookiedoei/video/7439445301699595553</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>1696</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>118</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>4</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Get rid of blackheads and sebum with these amazing products from Coxir. 👻
 These helped me out a lot and I would love to share these recommendations to you that struggles with the same skin concerns.</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>7.075471698113208</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>6.95754716981132</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1179245283018868</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>0.2358490566037736</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
